--- a/public/assets/result/Siti Sofia_2.xlsx
+++ b/public/assets/result/Siti Sofia_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -154,13 +154,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>SUPRIYATIN</t>
+    <t>SITI SOFIA</t>
   </si>
 </sst>
 </file>
@@ -913,16 +910,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J13" s="5">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="K13" s="5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="L13" s="5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -950,16 +947,16 @@
         <v>25</v>
       </c>
       <c r="I14" s="5">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J14" s="5">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="K14" s="5">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="L14" s="5">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -987,16 +984,16 @@
         <v>26</v>
       </c>
       <c r="I15" s="5">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J15" s="5">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="K15" s="5">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="L15" s="5">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1024,16 +1021,16 @@
         <v>25</v>
       </c>
       <c r="I16" s="5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J16" s="5">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="K16" s="5">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="L16" s="5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1061,16 +1058,16 @@
         <v>30</v>
       </c>
       <c r="I17" s="5">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J17" s="5">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="K17" s="5">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="L17" s="5">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -1135,16 +1132,16 @@
         <v>34</v>
       </c>
       <c r="I19" s="5">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="J19" s="5">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K19" s="5">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="L19" s="5">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1172,16 +1169,16 @@
         <v>24</v>
       </c>
       <c r="I20" s="5">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="J20" s="5">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="K20" s="5">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="L20" s="5">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="M20" s="5">
         <v>2</v>
@@ -1209,16 +1206,16 @@
         <v>35</v>
       </c>
       <c r="I21" s="5">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="J21" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="K21" s="5">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="L21" s="5">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1246,16 +1243,16 @@
         <v>25</v>
       </c>
       <c r="I22" s="5">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="J22" s="5">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="K22" s="5">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="L22" s="5">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="M22" s="5">
         <v>2</v>
@@ -1283,16 +1280,16 @@
         <v>34</v>
       </c>
       <c r="I23" s="5">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="J23" s="5">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K23" s="5">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="L23" s="5">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M23" s="5">
         <v>2</v>
@@ -1320,16 +1317,16 @@
         <v>26</v>
       </c>
       <c r="I24" s="5">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="J24" s="5">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="K24" s="5">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="L24" s="5">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="M24" s="5">
         <v>2</v>
@@ -1357,16 +1354,16 @@
         <v>34</v>
       </c>
       <c r="I25" s="5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J25" s="5">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K25" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L25" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M25" s="5">
         <v>2</v>
@@ -1394,16 +1391,16 @@
         <v>24</v>
       </c>
       <c r="I26" s="5">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J26" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K26" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L26" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M26" s="5">
         <v>2</v>
@@ -1431,16 +1428,16 @@
         <v>25</v>
       </c>
       <c r="I27" s="5">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J27" s="5">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="K27" s="5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L27" s="5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -1468,16 +1465,16 @@
         <v>35</v>
       </c>
       <c r="I28" s="5">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="J28" s="5">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="K28" s="5">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="L28" s="5">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
@@ -1505,16 +1502,16 @@
         <v>26</v>
       </c>
       <c r="I29" s="5">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="J29" s="5">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="K29" s="5">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="L29" s="5">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="M29" s="5">
         <v>2</v>
@@ -1566,9 +1563,7 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="K35" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="N35" s="1"/>
     </row>
@@ -1584,10 +1579,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="D38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="L38" s="4"/>
       <c r="N38" s="1"/>
